--- a/questions/most_common_hours.xlsx
+++ b/questions/most_common_hours.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14, 19, 16, 13</t>
+          <t>14, 19, 16, 13, 15</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 20, 15, 4</t>
+          <t>1, 20, 15, 4, 7, 12</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8, 9, 7, 19</t>
+          <t>8, 9, 7, 19, 18, 17</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19, 18, 20, 15</t>
+          <t>19, 18, 20, 15, 17, 14</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10, 9, 11, 8</t>
+          <t>10, 9, 11, 8, 12, 20</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18, 9, 19, 16</t>
+          <t>18, 9, 19, 16, 14, 13</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14, 11, 7, 9</t>
+          <t>14, 11, 7, 9, 20</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15, 18, 7, 6</t>
+          <t>15, 18, 7, 6, 10, 19</t>
         </is>
       </c>
     </row>
